--- a/calendarApp.xlsx
+++ b/calendarApp.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplex\Documents\ERM\1Ma\sem2\DS425_E\ProjetHoraireExam\ExamTimetable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF1A11-6331-4C38-8CB0-A8C5791C8024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendrier" sheetId="3" r:id="rId1"/>
+    <sheet name="Calendrier" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617780873" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617780873" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617780873" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617780873"/>
+      <pm:revision xmlns:pm="smNativeData" day="1618571297" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1618571297" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1618571297" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1618571297"/>
     </ext>
   </extLst>
 </workbook>
@@ -30,10 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Date de départ</t>
-  </si>
-  <si>
-    <t>Date de fin</t>
+    <t>Semaine</t>
   </si>
   <si>
     <t>Lundi</t>
@@ -57,13 +49,16 @@
     <t>Dimanche</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Date de départ</t>
+  </si>
+  <si>
+    <t>Date de fin</t>
   </si>
   <si>
     <t>v</t>
   </si>
   <si>
-    <t>Semaine</t>
+    <t>x</t>
   </si>
   <si>
     <t>Fini</t>
@@ -72,140 +67,290 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <name val="Basic Sans"/>
+      <family val="1"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="280" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="8">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618571297">
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,31 +364,39 @@
   <dxfs count="2">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE26B0A"/>
+          <extLst>
+            <ext uri="smNativeData">
+              <pm:shade xmlns:pm="smNativeData" id="1618571297" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
+            </ext>
+          </extLst>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC2D69A"/>
+          <extLst>
+            <ext uri="smNativeData">
+              <pm:shade xmlns:pm="smNativeData" id="1618571297" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
+            </ext>
+          </extLst>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617780873" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1618571297" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1618571297" count="2">
+        <pm:color name="Color 24" rgb="E26B0A"/>
+        <pm:color name="Color 25" rgb="C2D69A"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,87 +656,72 @@
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{01093FD6-0D36-4E14-86F1-F2645AEF4BCF}">
-  <we:reference id="wa104199815" version="1.0.0.1" store="fr-FR" storeType="OMEX"/>
-  <we:alternateReferences>
-    <we:reference id="WA104199815" version="1.0.0.1" store="WA104199815" storeType="OMEX"/>
-  </we:alternateReferences>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D614FA-B147-4A65-938C-968B7A19BED2}">
-  <sheetPr codeName="Feuil1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.633929" defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="11" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.330357" customWidth="1"/>
+    <col min="2" max="2" width="16.776786" customWidth="1"/>
+    <col min="3" max="3" width="6.553571" hidden="1" customWidth="1">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:columnDef xmlns:pm="smNativeData" id="1618571297" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </col>
+    <col min="5" max="11" width="11.553571" customWidth="1"/>
+    <col min="13" max="13" width="13.330357" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13">
       <c r="B1" s="1"/>
       <c r="C1">
         <f>WEEKDAY(B1,2)</f>
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>44348</v>
       </c>
       <c r="C2">
         <f>WEEKDAY(B2,2)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="str">
@@ -615,11 +753,11 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>44369</v>
       </c>
       <c r="C3">
@@ -635,7 +773,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" t="str">
         <f>IF(B3-B2&lt;0,"ERREUR","")</f>
         <v/>
@@ -643,7 +781,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="10" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="2">
@@ -655,29 +793,29 @@
         <v>44355</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:M16" si="0">IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
+        <f>IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
         <v>44356</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I4="","",IF(I4=$B$3,"",I4+1))</f>
         <v>44357</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(J4="","",IF(J4=$B$3,"",J4+1))</f>
         <v>44358</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(K4="","",IF(K4=$B$3,"",K4+1))</f>
         <v>44359</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(L4="","",IF(L4=$B$3,"",L4+1))</f>
         <v>44360</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:17">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
@@ -694,12 +832,12 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17">
       <c r="C6" t="str">
         <f>C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14&amp;C15&amp;C16&amp;C17&amp;C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36&amp;C37&amp;C38&amp;C39&amp;C40&amp;C41&amp;C42&amp;C43&amp;C44&amp;C45&amp;C46&amp;C47&amp;C48&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
         <v/>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="2">
@@ -711,30 +849,30 @@
         <v>44362</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(H6="","",IF(H6=$B$3,"",H6+1))</f>
         <v>44363</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I6="","",IF(I6=$B$3,"",I6+1))</f>
         <v>44364</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(J6="","",IF(J6=$B$3,"",J6+1))</f>
         <v>44365</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(K6="","",IF(K6=$B$3,"",K6+1))</f>
         <v>44366</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(L6="","",IF(L6=$B$3,"",L6+1))</f>
         <v>44367</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" s="8"/>
       <c r="C7" t="str">
         <f>IF(G$3="v",DAY(G$2)&amp;";","")</f>
@@ -749,12 +887,12 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13">
       <c r="C8" t="str">
         <f>IF(H$3="v",DAY(H$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="10" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="2">
@@ -766,27 +904,27 @@
         <v>44369</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H8="","",IF(H8=$B$3,"",H8+1))</f>
         <v/>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I8="","",IF(I8=$B$3,"",I8+1))</f>
         <v/>
       </c>
       <c r="K8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(J8="","",IF(J8=$B$3,"",J8+1))</f>
         <v/>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K8="","",IF(K8=$B$3,"",K8+1))</f>
         <v/>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(L8="","",IF(L8=$B$3,"",L8+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" t="str">
         <f>IF(I$3="v",DAY(I$2)&amp;";","")</f>
         <v/>
@@ -801,13 +939,13 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13">
       <c r="C10" t="str">
         <f>IF(J$3="v",DAY(J$2)&amp;";","")</f>
         <v/>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="10">
+      <c r="F10" s="10" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -819,27 +957,27 @@
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H10="","",IF(H10=$B$3,"",H10+1))</f>
         <v/>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I10="","",IF(I10=$B$3,"",I10+1))</f>
         <v/>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(J10="","",IF(J10=$B$3,"",J10+1))</f>
         <v/>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K10="","",IF(K10=$B$3,"",K10+1))</f>
         <v/>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(L10="","",IF(L10=$B$3,"",L10+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11" t="str">
         <f>IF(K$3="v",DAY(K$2)&amp;";","")</f>
         <v/>
@@ -853,12 +991,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13">
       <c r="C12" t="str">
         <f>IF(L$3="v",DAY(L$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="10" t="n">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="str">
@@ -870,27 +1008,27 @@
         <v/>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H12="","",IF(H12=$B$3,"",H12+1))</f>
         <v/>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I12="","",IF(I12=$B$3,"",I12+1))</f>
         <v/>
       </c>
       <c r="K12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(J12="","",IF(J12=$B$3,"",J12+1))</f>
         <v/>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K12="","",IF(K12=$B$3,"",K12+1))</f>
         <v/>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(L12="","",IF(L12=$B$3,"",L12+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
       <c r="C13" t="str">
         <f>IF(M$3="v",DAY(M$2)&amp;";","")</f>
         <v/>
@@ -905,12 +1043,12 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13">
       <c r="C14" t="str">
         <f>IF(G$5="v",DAY(G$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="10" t="n">
         <v>7</v>
       </c>
       <c r="G14" s="2" t="str">
@@ -922,27 +1060,27 @@
         <v/>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H14="","",IF(H14=$B$3,"",H14+1))</f>
         <v/>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I14="","",IF(I14=$B$3,"",I14+1))</f>
         <v/>
       </c>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(J14="","",IF(J14=$B$3,"",J14+1))</f>
         <v/>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K14="","",IF(K14=$B$3,"",K14+1))</f>
         <v/>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(L14="","",IF(L14=$B$3,"",L14+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" t="str">
         <f>IF(H$5="v",DAY(H$4)&amp;";","")</f>
         <v/>
@@ -956,12 +1094,12 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13">
       <c r="C16" t="str">
         <f>IF(I$5="v",DAY(I$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="10" t="n">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="str">
@@ -973,27 +1111,27 @@
         <v/>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H16="","",IF(H16=$B$3,"",H16+1))</f>
         <v/>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(I16="","",IF(I16=$B$3,"",I16+1))</f>
         <v/>
       </c>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(J16="","",IF(J16=$B$3,"",J16+1))</f>
         <v/>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K16="","",IF(K16=$B$3,"",K16+1))</f>
         <v/>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(L16="","",IF(L16=$B$3,"",L16+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" t="str">
         <f>IF(J$5="v",DAY(J$4)&amp;";","")</f>
         <v/>
@@ -1007,308 +1145,332 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3">
       <c r="C18" t="str">
         <f>IF(K$5="v",DAY(K$4)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3">
       <c r="C19" t="str">
         <f>IF(L$5="v",DAY(L$4)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3">
       <c r="C20" t="str">
         <f>IF(M$5="v",DAY(M$4)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3">
       <c r="C21" t="str">
         <f>IF(G$7="v",DAY(G$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3">
       <c r="C22" t="str">
         <f>IF(H$7="v",DAY(H$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3">
       <c r="C23" t="str">
         <f>IF(I$7="v",DAY(I$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3">
       <c r="C24" t="str">
         <f>IF(J$7="v",DAY(J$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3">
       <c r="C25" t="str">
         <f>IF(K$7="v",DAY(K$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3">
       <c r="C26" t="str">
         <f>IF(L$7="v",DAY(L$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3">
       <c r="C27" t="str">
         <f>IF(M$7="v",DAY(M$6)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3">
       <c r="C28" t="str">
         <f>IF(G$9="v",DAY(G$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3">
       <c r="C29" t="str">
         <f>IF(H$9="v",DAY(H$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3">
       <c r="C30" t="str">
         <f>IF(I$9="v",DAY(I$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3">
       <c r="C31" t="str">
         <f>IF(J$9="v",DAY(J$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3">
       <c r="C32" t="str">
         <f>IF(K$9="v",DAY(K$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" t="str">
         <f>IF(L$9="v",DAY(L$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3">
       <c r="C34" t="str">
         <f>IF(M$9="v",DAY(M$8)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3">
       <c r="C35" t="str">
         <f>IF(G$11="v",DAY(G$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3">
       <c r="C36" t="str">
         <f>IF(H$11="v",DAY(H$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3">
       <c r="C37" t="str">
         <f>IF(I$11="v",DAY(I$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" t="str">
         <f>IF(J$11="v",DAY(J$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" t="str">
         <f>IF(K$11="v",DAY(K$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3">
       <c r="C40" t="str">
         <f>IF(L$11="v",DAY(L$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" t="str">
         <f>IF(M$11="v",DAY(M$10)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" t="str">
         <f>IF(G$13="v",DAY(G$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" t="str">
         <f>IF(H$13="v",DAY(H$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" t="str">
         <f>IF(I$13="v",DAY(I$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3">
       <c r="C45" t="str">
         <f>IF(J$13="v",DAY(J$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3">
       <c r="C46" t="str">
         <f>IF(K$13="v",DAY(K$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3">
       <c r="C47" t="str">
         <f>IF(L$13="v",DAY(L$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3">
       <c r="C48" t="str">
         <f>IF(M$13="v",DAY(M$12)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3">
       <c r="C49" t="str">
         <f>IF(G$15="v",DAY(G$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3">
       <c r="C50" t="str">
         <f>IF(H$15="v",DAY(H$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3">
       <c r="C51" t="str">
         <f>IF(I$15="v",DAY(I$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3">
       <c r="C52" t="str">
         <f>IF(J$15="v",DAY(J$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3">
       <c r="C53" t="str">
         <f>IF(K$15="v",DAY(K$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3">
       <c r="C54" t="str">
         <f>IF(L$15="v",DAY(L$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3">
       <c r="C55" t="str">
         <f>IF(M$15="v",DAY(M$14)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3">
       <c r="C56" t="str">
         <f>IF(G$17="v",DAY(G$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3">
       <c r="C57" t="str">
         <f>IF(H$17="v",DAY(H$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3">
       <c r="C58" t="str">
         <f>IF(I$17="v",DAY(I$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3">
       <c r="C59" t="str">
         <f>IF(J$17="v",DAY(J$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3">
       <c r="C60" t="str">
         <f>IF(K$17="v",DAY(K$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3">
       <c r="C61" t="str">
         <f>IF(L$17="v",DAY(L$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3">
       <c r="C62" t="str">
         <f>IF(M$17="v",DAY(M$16)&amp;";","")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <mergeCells count="9">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="O5:Q6"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O5:Q6"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:M17">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="v">
-      <formula>NOT(ISERROR(SEARCH("v",G2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" text="x">
+      <formula>NOT(ISERROR(SEARCH("x", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",G2)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:M17">
+    <cfRule type="containsText" dxfId="1" priority="2" text="v">
+      <formula>NOT(ISERROR(SEARCH("v", G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M3 G5:M5 G7:M7 G9:M9 G11:M11 G13:M13 G15:M15 G17:M17 G19:M19 G21:M21 G23:M23 G25:M25 G27:M27 G29:M29 G31:M31 G33:M33 G35:M35 G37:M37 G39:M39 G41:M41 G43:M43 G45:M45 G47:M47 G49:M49" xr:uid="{0BAD278C-CC8D-4549-BB09-51078F0E677E}">
+    <dataValidation sqref="G3:M3 G5:M5 G7:M7 G9:M9 G11:M11 G13:M13 G15:M15 G17:M17 G19:M19 G21:M21 G23:M23 G25:M25 G27:M27 G29:M29 G31:M31 G33:M33 G35:M35 G37:M37 G39:M39 G41:M41 G43:M43 G45:M45 G47:M47 G49:M49" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$C$4:$C$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618571297" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1618571297" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618571297" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571297" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/calendarApp.xlsx
+++ b/calendarApp.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1618571297" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1618571297" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1618571297" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1618571297"/>
+      <pm:revision xmlns:pm="smNativeData" day="1618574911" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1618574911" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1618574911" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1618574911"/>
     </ext>
   </extLst>
 </workbook>
@@ -88,7 +88,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618574911" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -103,7 +103,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618574911" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -119,7 +119,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571297" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618574911" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
@@ -173,7 +173,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297"/>
+          <pm:border xmlns:pm="smNativeData" id="1618574911"/>
         </ext>
       </extLst>
     </border>
@@ -192,7 +192,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -215,7 +215,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -238,7 +238,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -261,7 +261,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -283,7 +283,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -306,7 +306,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -330,7 +330,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571297">
+          <pm:border xmlns:pm="smNativeData" id="1618574911">
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -350,7 +350,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,7 +367,7 @@
           <bgColor rgb="FFE26B0A"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1618571297" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1618574911" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -380,7 +379,7 @@
           <bgColor rgb="FFC2D69A"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1618571297" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1618574911" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -390,10 +389,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1618571297" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1618574911" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1618571297" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1618574911" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -671,7 +670,7 @@
     <col min="3" max="3" width="6.553571" hidden="1" customWidth="1">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1618571297" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1618574911" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
@@ -721,7 +720,7 @@
         <f>WEEKDAY(B2,2)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="str">
@@ -764,7 +763,7 @@
         <f>WEEKDAY(B3,2)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -781,7 +780,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="2">
@@ -817,27 +816,27 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="10" t="str">
         <f>C6</f>
         <v/>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="str">
         <f>C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14&amp;C15&amp;C16&amp;C17&amp;C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36&amp;C37&amp;C38&amp;C39&amp;C40&amp;C41&amp;C42&amp;C43&amp;C44&amp;C45&amp;C46&amp;C47&amp;C48&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
         <v/>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="2">
@@ -868,9 +867,9 @@
         <f>IF(L6="","",IF(L6=$B$3,"",L6+1))</f>
         <v>44367</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8"/>
@@ -878,7 +877,7 @@
         <f>IF(G$3="v",DAY(G$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -892,7 +891,7 @@
         <f>IF(H$3="v",DAY(H$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="2">
@@ -930,7 +929,7 @@
         <v/>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -945,7 +944,7 @@
         <v/>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="9" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -982,7 +981,7 @@
         <f>IF(K$3="v",DAY(K$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -996,7 +995,7 @@
         <f>IF(L$3="v",DAY(L$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="9" t="n">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="str">
@@ -1034,7 +1033,7 @@
         <v/>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1048,7 +1047,7 @@
         <f>IF(G$5="v",DAY(G$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="9" t="n">
         <v>7</v>
       </c>
       <c r="G14" s="2" t="str">
@@ -1085,7 +1084,7 @@
         <f>IF(H$5="v",DAY(H$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1099,7 +1098,7 @@
         <f>IF(I$5="v",DAY(I$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="9" t="n">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="str">
@@ -1136,7 +1135,7 @@
         <f>IF(J$5="v",DAY(J$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1450,7 +1449,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618571297" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618574911" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1459,14 +1458,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618571297" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618571297" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1618574911" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618574911" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571297" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618574911" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
